--- a/src/com/main/请假出差/leave20210412-20210416.xlsx
+++ b/src/com/main/请假出差/leave20210412-20210416.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wj\Desktop\Sign\src\com\main\请假出差\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiaoc\Desktop\研二上学期出差请假\2021.04.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE318C4-5EF5-4B22-BC26-054C65435E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB75C572-0069-4CFC-A4D1-0961EFC24EB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>陈玉娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱孟飞，徐书博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -103,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -389,17 +393,17 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1328125" customWidth="1"/>
-    <col min="3" max="3" width="55.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,51 +414,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44298</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44299</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44300</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44301</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44302</v>
       </c>
@@ -463,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>3</v>
       </c>
